--- a/posi.xlsx
+++ b/posi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\posi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2034F2C-81E2-4C39-B342-22174B0AB61D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ADE9AFF-9BB9-488B-9C2D-B6A63547CF16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,6 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="GRADE">Lookups!$A$1:$B$6</definedName>
+    <definedName name="RATIO">Lookups!$E$2:$E$8</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,8 +40,26 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={7593A550-7E3C-430F-A5C5-03D26D0848F9}</author>
+  </authors>
+  <commentList>
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{7593A550-7E3C-430F-A5C5-03D26D0848F9}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    You can adjust these as you see fit</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="111">
   <si>
     <t>Category</t>
   </si>
@@ -141,12 +160,6 @@
     <t>Modern IDE</t>
   </si>
   <si>
-    <t>SDK</t>
-  </si>
-  <si>
-    <t>Linters</t>
-  </si>
-  <si>
     <t>Security Tools (Static and Dynamic)</t>
   </si>
   <si>
@@ -240,9 +253,6 @@
     <t>Tools and Procedures</t>
   </si>
   <si>
-    <t>Budget, Exec. Sponsorship</t>
-  </si>
-  <si>
     <t>One Executive Sponsor that owns the budget (A or F!)</t>
   </si>
   <si>
@@ -261,10 +271,127 @@
     <t>Team Leaders held accountable for Metrics</t>
   </si>
   <si>
-    <t>Buget fixed at least 3 impulses ahead</t>
-  </si>
-  <si>
     <t>Zero tolerance for Technical Debt</t>
+  </si>
+  <si>
+    <t>Habits</t>
+  </si>
+  <si>
+    <t>Less than 1% change requests per impulse</t>
+  </si>
+  <si>
+    <t>Staff turn over (leaf) is 5% or less per impulse</t>
+  </si>
+  <si>
+    <t>Consistant task sizing methodology (independanty verifable)</t>
+  </si>
+  <si>
+    <t>Active measures of technical debt monitored and standard enforced</t>
+  </si>
+  <si>
+    <t>95% of the tests pass everynight</t>
+  </si>
+  <si>
+    <t>Releases are incident free and fit withing planned time</t>
+  </si>
+  <si>
+    <t>Incidents (outages) &lt; 5% of impulse total budget (in 3s e.g., B=8)</t>
+  </si>
+  <si>
+    <t>Activity Cadence has few variations e.g., planned day = actual day</t>
+  </si>
+  <si>
+    <t>Verification and Validation</t>
+  </si>
+  <si>
+    <t>User Acceptance Testing is Organized and Scripted</t>
+  </si>
+  <si>
+    <t>User Acceptance Testing is Based on Requirements Totality</t>
+  </si>
+  <si>
+    <t>Support Org. Tickets are converted to bugs on V+V</t>
+  </si>
+  <si>
+    <t>Release Notes to Customers reflect contents of release w. purpose</t>
+  </si>
+  <si>
+    <t>Ext. Security/Penatration Test 4x year (subtract 1 letter for each missing)</t>
+  </si>
+  <si>
+    <t>Pen. Tests failures are immediatelly bugs</t>
+  </si>
+  <si>
+    <t>Cost vs. program value is continously calculated and available to stakeholders</t>
+  </si>
+  <si>
+    <t>Budget fixed at least 3 impulses ahead</t>
+  </si>
+  <si>
+    <t>Budget, Exec. Sponsorship, &amp; Accountability</t>
+  </si>
+  <si>
+    <t>Staffing and Percentages</t>
+  </si>
+  <si>
+    <t>Project/Product Management</t>
+  </si>
+  <si>
+    <t>Developers</t>
+  </si>
+  <si>
+    <t>QA</t>
+  </si>
+  <si>
+    <t>DevOps</t>
+  </si>
+  <si>
+    <t>Support, etc.</t>
+  </si>
+  <si>
+    <t>Staff turn over (sr.) is 1% or less per impulse</t>
+  </si>
+  <si>
+    <t>Staff Ratio</t>
+  </si>
+  <si>
+    <t>SDK Version Consistant</t>
+  </si>
+  <si>
+    <t>Linters Used and Updated</t>
+  </si>
+  <si>
+    <t>Number of stacks kept to absolute minumum (1 UI, 1 BE, 1 Utility)</t>
+  </si>
+  <si>
+    <t>For each component one and only one approved solution</t>
+  </si>
+  <si>
+    <t>Resiliancy, HA, DR, &amp; Scale for each component documented &amp; followed</t>
+  </si>
+  <si>
+    <t>Enforced common libraries/patterns for each component</t>
+  </si>
+  <si>
+    <t>Enterprise Patterns Enforced (observability, failure detection, etc.)</t>
+  </si>
+  <si>
+    <t>Business Leaders (SMEs)</t>
+  </si>
+  <si>
+    <t>Team Leads / Architects</t>
+  </si>
+  <si>
+    <t>Architecture &amp; Operational Sanity</t>
+  </si>
+  <si>
+    <t>Lights Out NoC + Platform Support</t>
+  </si>
+  <si>
+    <t>Well known and practiced roll forward/back process</t>
+  </si>
+  <si>
+    <t>Runbook has detailed and updated troubleshooting</t>
   </si>
 </sst>
 </file>
@@ -274,7 +401,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -292,22 +419,35 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="7" tint="0.39997558519241921"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="20"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1" tint="0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -317,6 +457,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -348,32 +500,52 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="4">
     <dxf>
       <font>
-        <color rgb="FFFF0000"/>
+        <strike val="0"/>
+        <color theme="0"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
+          <bgColor theme="9" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -389,38 +561,6 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FFFF0000"/>
       </font>
       <fill>
@@ -429,79 +569,13 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFFFCC"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -514,7 +588,9 @@
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Stuart Williams" id="{AEDACDE6-AA9A-4D54-802E-A2D444AAB966}" userId="26fd219e5dd9afa4" providerId="Windows Live"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -778,51 +854,60 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="D1" dT="2023-09-03T16:02:37.21" personId="{AEDACDE6-AA9A-4D54-802E-A2D444AAB966}" id="{7593A550-7E3C-430F-A5C5-03D26D0848F9}">
+    <text>You can adjust these as you see fit</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H70"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H1" sqref="H1"/>
+      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C1" sqref="C1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="52.36328125" customWidth="1"/>
-    <col min="3" max="3" width="1.54296875" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="1.453125" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="0" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="3.7265625" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="3.81640625" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="68.81640625" customWidth="1"/>
+    <col min="3" max="3" width="6.08984375" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="7.6328125" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="8.7265625" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="10.453125" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="10.6328125" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="12.90625" customWidth="1"/>
+    <col min="9" max="9" width="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="26" x14ac:dyDescent="0.6">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="17" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="7">
-        <f>SUM(E3:E75)/100</f>
-        <v>0.49199999999999988</v>
-      </c>
-      <c r="G1" s="7">
-        <f>SUM(D3:D75)/100</f>
-        <v>0.49199999999999988</v>
-      </c>
-      <c r="H1" s="8">
+      <c r="F1" s="17">
+        <f>SUM(E3:E109)/100</f>
+        <v>0.7200000000000002</v>
+      </c>
+      <c r="G1" s="17">
+        <f>SUM(D3:D109)/100</f>
+        <v>0.7200000000000002</v>
+      </c>
+      <c r="H1" s="6">
         <f>F1/G1</f>
         <v>1</v>
       </c>
@@ -839,14 +924,14 @@
       <c r="B4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="15">
         <f>VLOOKUP(B18,GRADE,2,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="18">
         <v>0.7</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="16">
         <f>C4*D4</f>
         <v>0.7</v>
       </c>
@@ -858,15 +943,15 @@
       <c r="B5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="3">
-        <f>VLOOKUP(B5,GRADE,2,FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="D5" s="6">
-        <v>0.9</v>
-      </c>
-      <c r="E5" s="3">
-        <f t="shared" ref="E5:E60" si="0">C5*D5</f>
+      <c r="C5" s="15">
+        <f t="shared" ref="C5:C18" si="0">VLOOKUP(B5,GRADE,2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D5" s="18">
+        <v>0.9</v>
+      </c>
+      <c r="E5" s="16">
+        <f t="shared" ref="E5:E69" si="1">C5*D5</f>
         <v>0.9</v>
       </c>
     </row>
@@ -877,15 +962,15 @@
       <c r="B6" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="3">
-        <f>VLOOKUP(B6,GRADE,2,FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="D6" s="6">
-        <v>1</v>
-      </c>
-      <c r="E6" s="3">
+      <c r="C6" s="15">
         <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D6" s="18">
+        <v>1</v>
+      </c>
+      <c r="E6" s="16">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -896,15 +981,15 @@
       <c r="B7" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="3">
-        <f>VLOOKUP(B7,GRADE,2,FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="D7" s="6">
-        <v>0.8</v>
-      </c>
-      <c r="E7" s="3">
+      <c r="C7" s="15">
         <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D7" s="18">
+        <v>0.8</v>
+      </c>
+      <c r="E7" s="16">
+        <f t="shared" si="1"/>
         <v>0.8</v>
       </c>
     </row>
@@ -915,15 +1000,15 @@
       <c r="B8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="3">
-        <f>VLOOKUP(B8,GRADE,2,FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="D8" s="6">
-        <v>0.8</v>
-      </c>
-      <c r="E8" s="3">
+      <c r="C8" s="15">
         <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D8" s="18">
+        <v>0.8</v>
+      </c>
+      <c r="E8" s="16">
+        <f t="shared" si="1"/>
         <v>0.8</v>
       </c>
     </row>
@@ -934,53 +1019,53 @@
       <c r="B9" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="3">
-        <f>VLOOKUP(B9,GRADE,2,FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="D9" s="6">
-        <v>0.9</v>
-      </c>
-      <c r="E9" s="3">
+      <c r="C9" s="15">
         <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D9" s="18">
+        <v>0.9</v>
+      </c>
+      <c r="E9" s="16">
+        <f t="shared" si="1"/>
         <v>0.9</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="3">
-        <f>VLOOKUP(B10,GRADE,2,FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="D10" s="6">
-        <v>0.9</v>
-      </c>
-      <c r="E10" s="3">
+      <c r="C10" s="15">
         <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D10" s="18">
+        <v>0.9</v>
+      </c>
+      <c r="E10" s="16">
+        <f t="shared" si="1"/>
         <v>0.9</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="3">
-        <f>VLOOKUP(B11,GRADE,2,FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="D11" s="6">
-        <v>0.9</v>
-      </c>
-      <c r="E11" s="3">
+      <c r="C11" s="15">
         <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D11" s="18">
+        <v>0.9</v>
+      </c>
+      <c r="E11" s="16">
+        <f t="shared" si="1"/>
         <v>0.9</v>
       </c>
     </row>
@@ -991,15 +1076,15 @@
       <c r="B12" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="3">
-        <f>VLOOKUP(B12,GRADE,2,FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="D12" s="6">
+      <c r="C12" s="15">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D12" s="18">
         <v>0.7</v>
       </c>
-      <c r="E12" s="3">
-        <f t="shared" si="0"/>
+      <c r="E12" s="16">
+        <f t="shared" si="1"/>
         <v>0.7</v>
       </c>
     </row>
@@ -1010,15 +1095,15 @@
       <c r="B13" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="3">
-        <f>VLOOKUP(B13,GRADE,2,FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="D13" s="6">
-        <v>0.8</v>
-      </c>
-      <c r="E13" s="3">
+      <c r="C13" s="15">
         <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D13" s="18">
+        <v>0.8</v>
+      </c>
+      <c r="E13" s="16">
+        <f t="shared" si="1"/>
         <v>0.8</v>
       </c>
     </row>
@@ -1029,15 +1114,15 @@
       <c r="B14" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="3">
-        <f>VLOOKUP(B14,GRADE,2,FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="D14" s="6">
-        <v>0.8</v>
-      </c>
-      <c r="E14" s="3">
+      <c r="C14" s="15">
         <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D14" s="18">
+        <v>0.8</v>
+      </c>
+      <c r="E14" s="16">
+        <f t="shared" si="1"/>
         <v>0.8</v>
       </c>
     </row>
@@ -1048,15 +1133,15 @@
       <c r="B15" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="3">
-        <f>VLOOKUP(B15,GRADE,2,FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="D15" s="6">
+      <c r="C15" s="15">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D15" s="18">
         <v>0.95</v>
       </c>
-      <c r="E15" s="3">
-        <f t="shared" si="0"/>
+      <c r="E15" s="16">
+        <f t="shared" si="1"/>
         <v>0.95</v>
       </c>
     </row>
@@ -1067,15 +1152,15 @@
       <c r="B16" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="3">
-        <f>VLOOKUP(B16,GRADE,2,FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="D16" s="6">
-        <v>0.9</v>
-      </c>
-      <c r="E16" s="3">
+      <c r="C16" s="15">
         <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D16" s="18">
+        <v>0.9</v>
+      </c>
+      <c r="E16" s="16">
+        <f t="shared" si="1"/>
         <v>0.9</v>
       </c>
     </row>
@@ -1086,15 +1171,15 @@
       <c r="B17" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="3">
-        <f>VLOOKUP(B17,GRADE,2,FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="D17" s="6">
+      <c r="C17" s="15">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D17" s="18">
         <v>0.7</v>
       </c>
-      <c r="E17" s="3">
-        <f t="shared" si="0"/>
+      <c r="E17" s="16">
+        <f t="shared" si="1"/>
         <v>0.7</v>
       </c>
     </row>
@@ -1105,22 +1190,26 @@
       <c r="B18" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="3">
-        <f>VLOOKUP(B18,GRADE,2,FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="D18" s="6">
-        <v>0.8</v>
-      </c>
-      <c r="E18" s="3">
+      <c r="C18" s="15">
         <f t="shared" si="0"/>
-        <v>0.8</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D18" s="18">
+        <v>0.8</v>
+      </c>
+      <c r="E18" s="16">
+        <f t="shared" si="1"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E19" s="7"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
-        <v>65</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="E20" s="7"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
@@ -1129,15 +1218,15 @@
       <c r="B21" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="3">
-        <f>VLOOKUP(B21,GRADE,2,FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="D21" s="6">
-        <v>1</v>
-      </c>
-      <c r="E21" s="3">
-        <f t="shared" si="0"/>
+      <c r="C21" s="15">
+        <f t="shared" ref="C21:C37" si="2">VLOOKUP(B21,GRADE,2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D21" s="18">
+        <v>1</v>
+      </c>
+      <c r="E21" s="16">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1148,15 +1237,15 @@
       <c r="B22" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="3">
-        <f>VLOOKUP(B22,GRADE,2,FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="D22" s="6">
-        <v>1</v>
-      </c>
-      <c r="E22" s="3">
-        <f t="shared" si="0"/>
+      <c r="C22" s="15">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D22" s="18">
+        <v>1</v>
+      </c>
+      <c r="E22" s="16">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1167,15 +1256,15 @@
       <c r="B23" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="3">
-        <f>VLOOKUP(B23,GRADE,2,FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="D23" s="6">
-        <v>1</v>
-      </c>
-      <c r="E23" s="3">
-        <f t="shared" si="0"/>
+      <c r="C23" s="15">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D23" s="18">
+        <v>1</v>
+      </c>
+      <c r="E23" s="16">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1186,15 +1275,15 @@
       <c r="B24" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="3">
-        <f>VLOOKUP(B24,GRADE,2,FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="D24" s="6">
-        <v>1</v>
-      </c>
-      <c r="E24" s="3">
-        <f t="shared" si="0"/>
+      <c r="C24" s="15">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D24" s="18">
+        <v>1</v>
+      </c>
+      <c r="E24" s="16">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1205,15 +1294,15 @@
       <c r="B25" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C25" s="3">
-        <f>VLOOKUP(B25,GRADE,2,FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="D25" s="6">
-        <v>1</v>
-      </c>
-      <c r="E25" s="3">
-        <f t="shared" si="0"/>
+      <c r="C25" s="15">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D25" s="18">
+        <v>1</v>
+      </c>
+      <c r="E25" s="16">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1224,15 +1313,15 @@
       <c r="B26" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C26" s="3">
-        <f>VLOOKUP(B26,GRADE,2,FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="D26" s="6">
-        <v>0.8</v>
-      </c>
-      <c r="E26" s="3">
-        <f t="shared" si="0"/>
+      <c r="C26" s="15">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D26" s="18">
+        <v>0.8</v>
+      </c>
+      <c r="E26" s="16">
+        <f t="shared" si="1"/>
         <v>0.8</v>
       </c>
     </row>
@@ -1243,733 +1332,1365 @@
       <c r="B27" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C27" s="3">
-        <f>VLOOKUP(B27,GRADE,2,FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="D27" s="6">
-        <v>0.9</v>
-      </c>
-      <c r="E27" s="3">
-        <f t="shared" si="0"/>
+      <c r="C27" s="15">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D27" s="18">
+        <v>0.9</v>
+      </c>
+      <c r="E27" s="16">
+        <f t="shared" si="1"/>
         <v>0.9</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C28" s="3">
-        <f>VLOOKUP(B28,GRADE,2,FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="D28" s="6">
-        <v>1</v>
-      </c>
-      <c r="E28" s="3">
-        <f t="shared" si="0"/>
-        <v>1</v>
+      <c r="C28" s="15">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D28" s="18">
+        <v>0.8</v>
+      </c>
+      <c r="E28" s="16">
+        <f t="shared" ref="E28" si="3">C28*D28</f>
+        <v>0.8</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
-        <v>34</v>
+        <v>98</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C29" s="3">
-        <f>VLOOKUP(B29,GRADE,2,FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="D29" s="6">
-        <v>0.95</v>
-      </c>
-      <c r="E29" s="3">
-        <f t="shared" si="0"/>
-        <v>0.95</v>
+      <c r="C29" s="15">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D29" s="18">
+        <v>1</v>
+      </c>
+      <c r="E29" s="16">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
-        <v>35</v>
+        <v>99</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C30" s="3">
-        <f>VLOOKUP(B30,GRADE,2,FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="D30" s="6">
-        <v>0.85</v>
-      </c>
-      <c r="E30" s="3">
-        <f t="shared" si="0"/>
-        <v>0.85</v>
+      <c r="C30" s="15">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D30" s="18">
+        <v>0.95</v>
+      </c>
+      <c r="E30" s="16">
+        <f t="shared" si="1"/>
+        <v>0.95</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C31" s="3">
-        <f>VLOOKUP(B31,GRADE,2,FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="D31" s="6">
-        <v>0.8</v>
-      </c>
-      <c r="E31" s="3">
-        <f t="shared" si="0"/>
-        <v>0.8</v>
+      <c r="C31" s="15">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D31" s="18">
+        <v>0.85</v>
+      </c>
+      <c r="E31" s="16">
+        <f t="shared" si="1"/>
+        <v>0.85</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C32" s="3">
-        <f>VLOOKUP(B32,GRADE,2,FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="D32" s="6">
-        <v>0.7</v>
-      </c>
-      <c r="E32" s="3">
-        <f t="shared" si="0"/>
-        <v>0.7</v>
+      <c r="C32" s="15">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D32" s="18">
+        <v>0.8</v>
+      </c>
+      <c r="E32" s="16">
+        <f t="shared" si="1"/>
+        <v>0.8</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C33" s="3">
-        <f>VLOOKUP(B33,GRADE,2,FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="D33" s="6">
-        <v>0.6</v>
-      </c>
-      <c r="E33" s="3">
-        <f t="shared" si="0"/>
-        <v>0.6</v>
+      <c r="C33" s="15">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D33" s="18">
+        <v>0.7</v>
+      </c>
+      <c r="E33" s="16">
+        <f t="shared" si="1"/>
+        <v>0.7</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C34" s="3">
-        <f>VLOOKUP(B34,GRADE,2,FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="D34" s="6">
-        <v>0.7</v>
-      </c>
-      <c r="E34" s="3">
-        <f t="shared" si="0"/>
-        <v>0.7</v>
+      <c r="C34" s="15">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D34" s="18">
+        <v>0.6</v>
+      </c>
+      <c r="E34" s="16">
+        <f t="shared" si="1"/>
+        <v>0.6</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C35" s="3">
-        <f>VLOOKUP(B35,GRADE,2,FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="D35" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="E35" s="3">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
+      <c r="C35" s="15">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D35" s="18">
+        <v>0.7</v>
+      </c>
+      <c r="E35" s="16">
+        <f t="shared" si="1"/>
+        <v>0.7</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C36" s="3">
-        <f>VLOOKUP(B36,GRADE,2,FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="D36" s="6">
-        <v>1</v>
-      </c>
-      <c r="E36" s="3">
-        <f t="shared" si="0"/>
+      <c r="C36" s="15">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D36" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="E36" s="16">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A37" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C37" s="15">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D37" s="18">
+        <v>1</v>
+      </c>
+      <c r="E37" s="16">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A38" s="2" t="s">
-        <v>40</v>
-      </c>
+      <c r="E38" s="7"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A39" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C39" s="3">
-        <f>VLOOKUP(B39,GRADE,2,FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="D39" s="6">
-        <v>0.8</v>
-      </c>
-      <c r="E39" s="3">
-        <f t="shared" si="0"/>
-        <v>0.8</v>
-      </c>
+      <c r="A39" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E39" s="7"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C40" s="3">
-        <f>VLOOKUP(B40,GRADE,2,FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="D40" s="6">
-        <v>0.8</v>
-      </c>
-      <c r="E40" s="3">
-        <f t="shared" si="0"/>
+      <c r="C40" s="15">
+        <f t="shared" ref="C40:C49" si="4">VLOOKUP(B40,GRADE,2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D40" s="18">
+        <v>0.8</v>
+      </c>
+      <c r="E40" s="16">
+        <f t="shared" si="1"/>
         <v>0.8</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C41" s="3">
-        <f>VLOOKUP(B41,GRADE,2,FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="D41" s="6">
-        <v>0.9</v>
-      </c>
-      <c r="E41" s="3">
-        <f t="shared" si="0"/>
-        <v>0.9</v>
+      <c r="C41" s="15">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="D41" s="18">
+        <v>0.8</v>
+      </c>
+      <c r="E41" s="16">
+        <f t="shared" si="1"/>
+        <v>0.8</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C42" s="3">
-        <f>VLOOKUP(B42,GRADE,2,FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="D42" s="6">
-        <v>0.7</v>
-      </c>
-      <c r="E42" s="3">
-        <f t="shared" si="0"/>
-        <v>0.7</v>
+      <c r="C42" s="15">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="D42" s="18">
+        <v>0.9</v>
+      </c>
+      <c r="E42" s="16">
+        <f t="shared" si="1"/>
+        <v>0.9</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" s="3" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C43" s="3">
-        <f>VLOOKUP(B43,GRADE,2,FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="D43" s="6">
-        <v>0.9</v>
-      </c>
-      <c r="E43" s="3">
-        <f t="shared" si="0"/>
-        <v>0.9</v>
+      <c r="C43" s="15">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="D43" s="18">
+        <v>0.7</v>
+      </c>
+      <c r="E43" s="16">
+        <f t="shared" si="1"/>
+        <v>0.7</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C44" s="3">
-        <f>VLOOKUP(B44,GRADE,2,FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="D44" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="E44" s="3">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
+      <c r="C44" s="15">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="D44" s="18">
+        <v>0.9</v>
+      </c>
+      <c r="E44" s="16">
+        <f t="shared" si="1"/>
+        <v>0.9</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C45" s="3">
-        <f>VLOOKUP(B45,GRADE,2,FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="D45" s="6">
-        <v>0.8</v>
-      </c>
-      <c r="E45" s="3">
-        <f t="shared" si="0"/>
-        <v>0.8</v>
+      <c r="C45" s="15">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="D45" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="E45" s="16">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C46" s="3">
-        <f>VLOOKUP(B46,GRADE,2,FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="D46" s="6">
-        <v>0.6</v>
-      </c>
-      <c r="E46" s="3">
-        <f t="shared" si="0"/>
-        <v>0.6</v>
+      <c r="C46" s="15">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="D46" s="18">
+        <v>0.8</v>
+      </c>
+      <c r="E46" s="16">
+        <f t="shared" si="1"/>
+        <v>0.8</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C47" s="3">
-        <f>VLOOKUP(B47,GRADE,2,FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="D47" s="6">
-        <v>0.9</v>
-      </c>
-      <c r="E47" s="3">
-        <f t="shared" si="0"/>
-        <v>0.9</v>
+      <c r="C47" s="15">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="D47" s="18">
+        <v>0.6</v>
+      </c>
+      <c r="E47" s="16">
+        <f t="shared" si="1"/>
+        <v>0.6</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C48" s="15">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="D48" s="18">
+        <v>0.9</v>
+      </c>
+      <c r="E48" s="16">
+        <f t="shared" si="1"/>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A49" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C49" s="15">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="D49" s="18">
+        <v>0.9</v>
+      </c>
+      <c r="E49" s="16">
+        <f t="shared" si="1"/>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E50" s="7"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A51" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B48" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C48" s="3">
-        <f>VLOOKUP(B48,GRADE,2,FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="D48" s="6">
-        <v>0.9</v>
-      </c>
-      <c r="E48" s="3">
-        <f t="shared" si="0"/>
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A50" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A51" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C51" s="3">
-        <f>VLOOKUP(B51,GRADE,2,FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="D51" s="6">
-        <v>0.9</v>
-      </c>
-      <c r="E51" s="3">
-        <f t="shared" si="0"/>
-        <v>0.9</v>
-      </c>
+      <c r="E51" s="7"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C52" s="3">
-        <f>VLOOKUP(B52,GRADE,2,FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="D52" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="E52" s="3">
-        <f t="shared" si="0"/>
-        <v>0.1</v>
+      <c r="C52" s="15">
+        <f t="shared" ref="C52:C61" si="5">VLOOKUP(B52,GRADE,2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D52" s="18">
+        <v>0.95</v>
+      </c>
+      <c r="E52" s="16">
+        <f t="shared" si="1"/>
+        <v>0.95</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C53" s="3">
-        <f>VLOOKUP(B53,GRADE,2,FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="D53" s="6">
-        <v>1</v>
-      </c>
-      <c r="E53" s="3">
-        <f t="shared" si="0"/>
-        <v>1</v>
+      <c r="C53" s="15">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="D53" s="18">
+        <v>0.05</v>
+      </c>
+      <c r="E53" s="16">
+        <f t="shared" si="1"/>
+        <v>0.05</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C54" s="3">
-        <f>VLOOKUP(B54,GRADE,2,FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="D54" s="6">
-        <v>0.8</v>
-      </c>
-      <c r="E54" s="3">
-        <f t="shared" si="0"/>
-        <v>0.8</v>
+      <c r="C54" s="15">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="D54" s="18">
+        <v>1</v>
+      </c>
+      <c r="E54" s="16">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C55" s="3">
-        <f>VLOOKUP(B55,GRADE,2,FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="D55" s="6">
-        <v>0.8</v>
-      </c>
-      <c r="E55" s="3">
-        <f t="shared" si="0"/>
+      <c r="C55" s="15">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="D55" s="18">
+        <v>0.8</v>
+      </c>
+      <c r="E55" s="16">
+        <f t="shared" si="1"/>
         <v>0.8</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C56" s="3">
-        <f>VLOOKUP(B56,GRADE,2,FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="D56" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="E56" s="3">
-        <f t="shared" si="0"/>
-        <v>0.05</v>
+      <c r="C56" s="15">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="D56" s="18">
+        <v>0.8</v>
+      </c>
+      <c r="E56" s="16">
+        <f t="shared" si="1"/>
+        <v>0.8</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C57" s="3">
-        <f>VLOOKUP(B57,GRADE,2,FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="D57" s="6">
-        <v>0.95</v>
-      </c>
-      <c r="E57" s="3">
-        <f t="shared" si="0"/>
-        <v>0.95</v>
+      <c r="C57" s="15">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="D57" s="18">
+        <v>0.05</v>
+      </c>
+      <c r="E57" s="16">
+        <f t="shared" si="1"/>
+        <v>0.05</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C58" s="3">
-        <f>VLOOKUP(B58,GRADE,2,FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="D58" s="6">
-        <v>0.9</v>
-      </c>
-      <c r="E58" s="3">
-        <f t="shared" si="0"/>
-        <v>0.9</v>
+      <c r="C58" s="15">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="D58" s="18">
+        <v>0.95</v>
+      </c>
+      <c r="E58" s="16">
+        <f t="shared" si="1"/>
+        <v>0.95</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C59" s="3">
-        <f>VLOOKUP(B59,GRADE,2,FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="D59" s="6">
-        <v>0.85</v>
-      </c>
-      <c r="E59" s="3">
-        <f t="shared" si="0"/>
-        <v>0.85</v>
+      <c r="C59" s="15">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="D59" s="18">
+        <v>0.9</v>
+      </c>
+      <c r="E59" s="16">
+        <f t="shared" si="1"/>
+        <v>0.9</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C60" s="3">
-        <f>VLOOKUP(B60,GRADE,2,FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="D60" s="6">
-        <v>0.9</v>
-      </c>
-      <c r="E60" s="3">
-        <f t="shared" si="0"/>
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A62" s="2" t="s">
-        <v>66</v>
+      <c r="C60" s="15">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="D60" s="18">
+        <v>0.85</v>
+      </c>
+      <c r="E60" s="16">
+        <f t="shared" si="1"/>
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A61" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C61" s="15">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="D61" s="18">
+        <v>0.9</v>
+      </c>
+      <c r="E61" s="16">
+        <f t="shared" si="1"/>
+        <v>0.9</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A63" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C63" s="3">
-        <f>VLOOKUP(B63,GRADE,2,FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="D63" s="6">
-        <v>1</v>
-      </c>
-      <c r="E63" s="3">
-        <f t="shared" ref="E63:E70" si="1">C63*D63</f>
-        <v>1</v>
+      <c r="A63" s="2" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" s="3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C64" s="3">
-        <f>VLOOKUP(B64,GRADE,2,FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="D64" s="6">
-        <v>1</v>
-      </c>
-      <c r="E64" s="3">
+      <c r="C64" s="15">
+        <f t="shared" ref="C64:D71" si="6">VLOOKUP(B64,GRADE,2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D64" s="18">
+        <v>1</v>
+      </c>
+      <c r="E64" s="16">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B65" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C65" s="3">
-        <f>VLOOKUP(B65,GRADE,2,FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="D65" s="6">
-        <v>1</v>
-      </c>
-      <c r="E65" s="3">
+      <c r="C65" s="15">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="D65" s="18">
+        <v>1</v>
+      </c>
+      <c r="E65" s="16">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" s="3" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C66" s="3">
-        <f>VLOOKUP(B66,GRADE,2,FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="D66" s="6">
-        <v>1</v>
-      </c>
-      <c r="E66" s="3">
+      <c r="C66" s="15">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="D66" s="18">
+        <v>1</v>
+      </c>
+      <c r="E66" s="16">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B67" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C67" s="3">
-        <f>VLOOKUP(B67,GRADE,2,FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="D67" s="6">
-        <v>1</v>
-      </c>
-      <c r="E67" s="3">
+      <c r="C67" s="15">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="D67" s="18">
+        <v>1</v>
+      </c>
+      <c r="E67" s="16">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" s="3" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B68" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C68" s="3">
-        <f>VLOOKUP(B68,GRADE,2,FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="D68" s="6">
-        <v>1</v>
-      </c>
-      <c r="E68" s="3">
+      <c r="C68" s="15">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="D68" s="18">
+        <v>1</v>
+      </c>
+      <c r="E68" s="16">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" s="3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B69" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C69" s="3">
-        <f>VLOOKUP(B69,GRADE,2,FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="D69" s="6">
-        <v>0.9</v>
-      </c>
-      <c r="E69" s="3">
-        <f t="shared" si="1"/>
-        <v>0.9</v>
+      <c r="C69" s="15">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="D69" s="18">
+        <v>1</v>
+      </c>
+      <c r="E69" s="16">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C70" s="15">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="D70" s="18">
+        <v>0.9</v>
+      </c>
+      <c r="E70" s="16">
+        <f t="shared" ref="E70:E81" si="7">C70*D70</f>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A71" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C71" s="15">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="D71" s="18">
+        <v>0.85</v>
+      </c>
+      <c r="E71" s="16">
+        <f t="shared" si="7"/>
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E72" s="7"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A73" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E73" s="7"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A74" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C74" s="15">
+        <f t="shared" ref="C74:C100" si="8">VLOOKUP(B74,GRADE,2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D74" s="18">
+        <v>0.9</v>
+      </c>
+      <c r="E74" s="16">
+        <f t="shared" si="7"/>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A75" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C75" s="15">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="D75" s="18">
+        <v>1</v>
+      </c>
+      <c r="E75" s="16">
+        <f t="shared" ref="E75" si="9">C75*D75</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A76" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C76" s="15">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="D76" s="18">
+        <v>0.95</v>
+      </c>
+      <c r="E76" s="16">
+        <f t="shared" si="7"/>
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A77" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B70" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C70" s="3">
-        <f>VLOOKUP(B70,GRADE,2,FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="D70" s="6">
-        <v>0.9</v>
-      </c>
-      <c r="E70" s="3">
-        <f t="shared" si="1"/>
+      <c r="B77" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C77" s="15">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="D77" s="18">
+        <v>0.85</v>
+      </c>
+      <c r="E77" s="16">
+        <f t="shared" si="7"/>
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A78" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C78" s="15">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="D78" s="18">
+        <v>0.85</v>
+      </c>
+      <c r="E78" s="16">
+        <f t="shared" si="7"/>
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A79" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C79" s="15">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="D79" s="18">
+        <v>0.8</v>
+      </c>
+      <c r="E79" s="16">
+        <f t="shared" si="7"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A80" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C80" s="15">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="D80" s="18">
+        <v>0.9</v>
+      </c>
+      <c r="E80" s="16">
+        <f t="shared" si="7"/>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A81" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C81" s="15">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="D81" s="18">
+        <v>1</v>
+      </c>
+      <c r="E81" s="16">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A82" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C82" s="15">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="D82" s="18">
+        <v>1</v>
+      </c>
+      <c r="E82" s="16">
+        <f t="shared" ref="E82" si="10">C82*D82</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A84" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A85" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C85" s="15">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="D85" s="18">
+        <v>0.9</v>
+      </c>
+      <c r="E85" s="16">
+        <f t="shared" ref="E85:E87" si="11">C85*D85</f>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A86" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C86" s="15">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="D86" s="18">
+        <v>0.9</v>
+      </c>
+      <c r="E86" s="16">
+        <f t="shared" si="11"/>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A87" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C87" s="15">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="D87" s="18">
+        <v>1</v>
+      </c>
+      <c r="E87" s="16">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A88" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C88" s="15">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="D88" s="18">
+        <v>0.75</v>
+      </c>
+      <c r="E88" s="16">
+        <f t="shared" ref="E88:E91" si="12">C88*D88</f>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A89" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C89" s="15">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="D89" s="18">
+        <v>0.9</v>
+      </c>
+      <c r="E89" s="16">
+        <f t="shared" si="12"/>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A90" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C90" s="15">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="D90" s="18">
+        <v>1</v>
+      </c>
+      <c r="E90" s="16">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A91" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C91" s="15">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="D91" s="18">
+        <v>0.9</v>
+      </c>
+      <c r="E91" s="16">
+        <f t="shared" si="12"/>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A93" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B93" s="9"/>
+      <c r="C93" s="9"/>
+      <c r="D93" s="10"/>
+      <c r="E93" s="11"/>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A94" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C94" s="15">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="D94" s="18">
+        <f>Lookups!E2</f>
+        <v>0.01</v>
+      </c>
+      <c r="E94" s="16">
+        <f t="shared" ref="E94:E100" si="13">C94*D94</f>
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A95" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C95" s="15">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="D95" s="18">
+        <f>Lookups!E3</f>
+        <v>0.05</v>
+      </c>
+      <c r="E95" s="16">
+        <f t="shared" ref="E95" si="14">C95*D95</f>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A96" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C96" s="15">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="D96" s="18">
+        <f>Lookups!E4</f>
+        <v>0.06</v>
+      </c>
+      <c r="E96" s="16">
+        <f t="shared" si="13"/>
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A97" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C97" s="15">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="D97" s="18">
+        <f>Lookups!E5</f>
+        <v>0.5</v>
+      </c>
+      <c r="E97" s="16">
+        <f t="shared" si="13"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A98" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C98" s="15">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="D98" s="18">
+        <f>Lookups!E6</f>
+        <v>0.25</v>
+      </c>
+      <c r="E98" s="16">
+        <f t="shared" si="13"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A99" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C99" s="15">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="D99" s="18">
+        <f>Lookups!E7</f>
+        <v>0.1</v>
+      </c>
+      <c r="E99" s="16">
+        <f t="shared" si="13"/>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A100" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C100" s="15">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="D100" s="18">
+        <f>Lookups!E8</f>
+        <v>0.03</v>
+      </c>
+      <c r="E100" s="16">
+        <f t="shared" si="13"/>
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A102" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A103" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C103" s="15">
+        <f t="shared" ref="C103:C109" si="15">VLOOKUP(B103,GRADE,2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D103" s="18">
+        <v>0.9</v>
+      </c>
+      <c r="E103" s="16">
+        <f t="shared" ref="E103:E109" si="16">C103*D103</f>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A104" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C104" s="15">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="D104" s="18">
+        <v>0.95</v>
+      </c>
+      <c r="E104" s="16">
+        <f t="shared" si="16"/>
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A105" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C105" s="15">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="D105" s="18">
+        <v>0.9</v>
+      </c>
+      <c r="E105" s="16">
+        <f t="shared" si="16"/>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A106" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C106" s="15">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="D106" s="18">
+        <v>1</v>
+      </c>
+      <c r="E106" s="16">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A107" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C107" s="15">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="D107" s="18">
+        <v>0.8</v>
+      </c>
+      <c r="E107" s="16">
+        <f t="shared" si="16"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A108" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C108" s="15">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="D108" s="18">
+        <v>1</v>
+      </c>
+      <c r="E108" s="16">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A109" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C109" s="15">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="D109" s="18">
+        <v>0.9</v>
+      </c>
+      <c r="E109" s="16">
+        <f t="shared" si="16"/>
         <v>0.9</v>
       </c>
     </row>
@@ -1978,23 +2699,24 @@
     <sortCondition ref="A4:A18"/>
   </sortState>
   <conditionalFormatting sqref="H1">
-    <cfRule type="cellIs" dxfId="4" priority="4" stopIfTrue="1" operator="greaterThan">
-      <formula>0.89</formula>
+    <cfRule type="cellIs" dxfId="3" priority="1" stopIfTrue="1" operator="lessThan">
+      <formula>0.7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="3" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="2" priority="2" stopIfTrue="1" operator="between">
+      <formula>0.7</formula>
+      <formula>0.79</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="3" stopIfTrue="1" operator="between">
       <formula>0.8</formula>
       <formula>0.89</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="2" stopIfTrue="1" operator="between">
-      <formula>0.7</formula>
-      <formula>0.79</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="1" stopIfTrue="1" operator="lessThan">
-      <formula>0.7</formula>
+    <cfRule type="cellIs" dxfId="0" priority="4" stopIfTrue="1" operator="greaterThan">
+      <formula>0.89</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
@@ -2002,13 +2724,13 @@
           <x14:formula1>
             <xm:f>Lookups!$A$1:$A$5</xm:f>
           </x14:formula1>
-          <xm:sqref>B3 B61:B62 B71:B251</xm:sqref>
+          <xm:sqref>B3 B62:B63 B72:B254</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{291DEF63-BBC8-4C7A-869B-9C183762F7BE}">
           <x14:formula1>
             <xm:f>Lookups!$A$1:$A$6</xm:f>
           </x14:formula1>
-          <xm:sqref>B63:B70 B4:B60</xm:sqref>
+          <xm:sqref>B64:B71 B4:B61</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2018,63 +2740,126 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13A68CE0-A841-405E-9BAB-52813796ABD2}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.81640625" customWidth="1"/>
+    <col min="4" max="4" width="25.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B1" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C1" s="14"/>
+      <c r="E1" s="13" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B2" s="4">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C2" s="14"/>
+      <c r="D2" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E2" s="5">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B3" s="4">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C3" s="14"/>
+      <c r="D3" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E3" s="5">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B4" s="4">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C4" s="14"/>
+      <c r="D4" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B5" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C5" s="14"/>
+      <c r="D5" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B6" s="4">
         <v>0</v>
+      </c>
+      <c r="C6" s="14"/>
+      <c r="D6" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D7" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D8" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E8" s="5">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E9" s="12">
+        <f>SUM(E2:E8)</f>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
